--- a/practiapintame-codes.xlsx
+++ b/practiapintame-codes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Downloads\cod_resource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyectos\neuralprinter\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="992">
   <si>
     <t>9qhk1</t>
   </si>
@@ -1492,6 +1492,1509 @@
   </si>
   <si>
     <t>argentina</t>
+  </si>
+  <si>
+    <t>colombia</t>
+  </si>
+  <si>
+    <t>02vnr</t>
+  </si>
+  <si>
+    <t>03dqy</t>
+  </si>
+  <si>
+    <t>05xje</t>
+  </si>
+  <si>
+    <t>084sn</t>
+  </si>
+  <si>
+    <t>098f6</t>
+  </si>
+  <si>
+    <t>09i96</t>
+  </si>
+  <si>
+    <t>0dtuc</t>
+  </si>
+  <si>
+    <t>0iwrb</t>
+  </si>
+  <si>
+    <t>0m3is</t>
+  </si>
+  <si>
+    <t>0mwec</t>
+  </si>
+  <si>
+    <t>0ptfd</t>
+  </si>
+  <si>
+    <t>0qe6l</t>
+  </si>
+  <si>
+    <t>0u134</t>
+  </si>
+  <si>
+    <t>0ysso</t>
+  </si>
+  <si>
+    <t>0yz40</t>
+  </si>
+  <si>
+    <t>0zwja</t>
+  </si>
+  <si>
+    <t>10yhf</t>
+  </si>
+  <si>
+    <t>15cju</t>
+  </si>
+  <si>
+    <t>191lo</t>
+  </si>
+  <si>
+    <t>1epwb</t>
+  </si>
+  <si>
+    <t>1g9zj</t>
+  </si>
+  <si>
+    <t>1laps</t>
+  </si>
+  <si>
+    <t>1mik1</t>
+  </si>
+  <si>
+    <t>1o4yc</t>
+  </si>
+  <si>
+    <t>1oioa</t>
+  </si>
+  <si>
+    <t>1qhgy</t>
+  </si>
+  <si>
+    <t>1seax</t>
+  </si>
+  <si>
+    <t>1sh2b</t>
+  </si>
+  <si>
+    <t>1xbef</t>
+  </si>
+  <si>
+    <t>21ixa</t>
+  </si>
+  <si>
+    <t>23k1s</t>
+  </si>
+  <si>
+    <t>26n4x</t>
+  </si>
+  <si>
+    <t>285ct</t>
+  </si>
+  <si>
+    <t>28yj3</t>
+  </si>
+  <si>
+    <t>2ab5x</t>
+  </si>
+  <si>
+    <t>2b5jn</t>
+  </si>
+  <si>
+    <t>2c5jh</t>
+  </si>
+  <si>
+    <t>2iiwc</t>
+  </si>
+  <si>
+    <t>2ij87</t>
+  </si>
+  <si>
+    <t>2jlkw</t>
+  </si>
+  <si>
+    <t>2maqn</t>
+  </si>
+  <si>
+    <t>2o7ld</t>
+  </si>
+  <si>
+    <t>2xhf3</t>
+  </si>
+  <si>
+    <t>2xmnk</t>
+  </si>
+  <si>
+    <t>2xzxc</t>
+  </si>
+  <si>
+    <t>2y8ui</t>
+  </si>
+  <si>
+    <t>2yhfr</t>
+  </si>
+  <si>
+    <t>2yvlp</t>
+  </si>
+  <si>
+    <t>2zk3b</t>
+  </si>
+  <si>
+    <t>35oze</t>
+  </si>
+  <si>
+    <t>35x5x</t>
+  </si>
+  <si>
+    <t>3e3ye</t>
+  </si>
+  <si>
+    <t>3fckc</t>
+  </si>
+  <si>
+    <t>3kmvr</t>
+  </si>
+  <si>
+    <t>3nrf5</t>
+  </si>
+  <si>
+    <t>3q2vj</t>
+  </si>
+  <si>
+    <t>3rdyl</t>
+  </si>
+  <si>
+    <t>3sfcm</t>
+  </si>
+  <si>
+    <t>3uaon</t>
+  </si>
+  <si>
+    <t>41avw</t>
+  </si>
+  <si>
+    <t>42mi1</t>
+  </si>
+  <si>
+    <t>440v0</t>
+  </si>
+  <si>
+    <t>45oow</t>
+  </si>
+  <si>
+    <t>45tuy</t>
+  </si>
+  <si>
+    <t>477a7</t>
+  </si>
+  <si>
+    <t>49nci</t>
+  </si>
+  <si>
+    <t>4a5de</t>
+  </si>
+  <si>
+    <t>4d6ou</t>
+  </si>
+  <si>
+    <t>4e0qd</t>
+  </si>
+  <si>
+    <t>4mxa2</t>
+  </si>
+  <si>
+    <t>4o1t6</t>
+  </si>
+  <si>
+    <t>4xpt5</t>
+  </si>
+  <si>
+    <t>4y99w</t>
+  </si>
+  <si>
+    <t>4zgul</t>
+  </si>
+  <si>
+    <t>52otp</t>
+  </si>
+  <si>
+    <t>54ng7</t>
+  </si>
+  <si>
+    <t>54yxu</t>
+  </si>
+  <si>
+    <t>55oym</t>
+  </si>
+  <si>
+    <t>55uqt</t>
+  </si>
+  <si>
+    <t>56m1x</t>
+  </si>
+  <si>
+    <t>57e4s</t>
+  </si>
+  <si>
+    <t>5fkti</t>
+  </si>
+  <si>
+    <t>5lbzk</t>
+  </si>
+  <si>
+    <t>5lnrg</t>
+  </si>
+  <si>
+    <t>5mff4</t>
+  </si>
+  <si>
+    <t>5ny0l</t>
+  </si>
+  <si>
+    <t>5ozma</t>
+  </si>
+  <si>
+    <t>5qk93</t>
+  </si>
+  <si>
+    <t>5su9g</t>
+  </si>
+  <si>
+    <t>5u8p3</t>
+  </si>
+  <si>
+    <t>5v78p</t>
+  </si>
+  <si>
+    <t>5zqxn</t>
+  </si>
+  <si>
+    <t>633lv</t>
+  </si>
+  <si>
+    <t>64itd</t>
+  </si>
+  <si>
+    <t>66fhy</t>
+  </si>
+  <si>
+    <t>66o1a</t>
+  </si>
+  <si>
+    <t>68o4a</t>
+  </si>
+  <si>
+    <t>69q5c</t>
+  </si>
+  <si>
+    <t>6ad70</t>
+  </si>
+  <si>
+    <t>6ehw0</t>
+  </si>
+  <si>
+    <t>6f8pn</t>
+  </si>
+  <si>
+    <t>6f9ts</t>
+  </si>
+  <si>
+    <t>6j2ld</t>
+  </si>
+  <si>
+    <t>6j6qt</t>
+  </si>
+  <si>
+    <t>6o856</t>
+  </si>
+  <si>
+    <t>6qpkh</t>
+  </si>
+  <si>
+    <t>6r4i3</t>
+  </si>
+  <si>
+    <t>6xhjl</t>
+  </si>
+  <si>
+    <t>6y6yb</t>
+  </si>
+  <si>
+    <t>6zqa3</t>
+  </si>
+  <si>
+    <t>75g27</t>
+  </si>
+  <si>
+    <t>75ugh</t>
+  </si>
+  <si>
+    <t>76hvr</t>
+  </si>
+  <si>
+    <t>76t3k</t>
+  </si>
+  <si>
+    <t>7f18i</t>
+  </si>
+  <si>
+    <t>7k3yp</t>
+  </si>
+  <si>
+    <t>7m2ce</t>
+  </si>
+  <si>
+    <t>7o9yr</t>
+  </si>
+  <si>
+    <t>7uoky</t>
+  </si>
+  <si>
+    <t>7viji</t>
+  </si>
+  <si>
+    <t>80j6w</t>
+  </si>
+  <si>
+    <t>856vp</t>
+  </si>
+  <si>
+    <t>871r1</t>
+  </si>
+  <si>
+    <t>88cwd</t>
+  </si>
+  <si>
+    <t>88onw</t>
+  </si>
+  <si>
+    <t>8dtuv</t>
+  </si>
+  <si>
+    <t>8e7q8</t>
+  </si>
+  <si>
+    <t>8hrx3</t>
+  </si>
+  <si>
+    <t>8ptlw</t>
+  </si>
+  <si>
+    <t>8riiv</t>
+  </si>
+  <si>
+    <t>8rimv</t>
+  </si>
+  <si>
+    <t>8scc6</t>
+  </si>
+  <si>
+    <t>8yq8a</t>
+  </si>
+  <si>
+    <t>946s7</t>
+  </si>
+  <si>
+    <t>94shg</t>
+  </si>
+  <si>
+    <t>97iua</t>
+  </si>
+  <si>
+    <t>98m9b</t>
+  </si>
+  <si>
+    <t>98xql</t>
+  </si>
+  <si>
+    <t>99i6y</t>
+  </si>
+  <si>
+    <t>9alem</t>
+  </si>
+  <si>
+    <t>9fj7g</t>
+  </si>
+  <si>
+    <t>9jlyl</t>
+  </si>
+  <si>
+    <t>9ona1</t>
+  </si>
+  <si>
+    <t>9r6hv</t>
+  </si>
+  <si>
+    <t>9s7ov</t>
+  </si>
+  <si>
+    <t>9ufnr</t>
+  </si>
+  <si>
+    <t>9wk01</t>
+  </si>
+  <si>
+    <t>a0gf0</t>
+  </si>
+  <si>
+    <t>aa8lu</t>
+  </si>
+  <si>
+    <t>aikx4</t>
+  </si>
+  <si>
+    <t>ajgzl</t>
+  </si>
+  <si>
+    <t>anv0w</t>
+  </si>
+  <si>
+    <t>axpzb</t>
+  </si>
+  <si>
+    <t>b1ugn</t>
+  </si>
+  <si>
+    <t>b2pc8</t>
+  </si>
+  <si>
+    <t>bag49</t>
+  </si>
+  <si>
+    <t>bgvcy</t>
+  </si>
+  <si>
+    <t>blj38</t>
+  </si>
+  <si>
+    <t>br125</t>
+  </si>
+  <si>
+    <t>br6rq</t>
+  </si>
+  <si>
+    <t>br9kf</t>
+  </si>
+  <si>
+    <t>bsqci</t>
+  </si>
+  <si>
+    <t>bt7vm</t>
+  </si>
+  <si>
+    <t>btlf5</t>
+  </si>
+  <si>
+    <t>bybmh</t>
+  </si>
+  <si>
+    <t>c3len</t>
+  </si>
+  <si>
+    <t>c3ral</t>
+  </si>
+  <si>
+    <t>cdp0w</t>
+  </si>
+  <si>
+    <t>cexn5</t>
+  </si>
+  <si>
+    <t>cglz5</t>
+  </si>
+  <si>
+    <t>chglb</t>
+  </si>
+  <si>
+    <t>cowme</t>
+  </si>
+  <si>
+    <t>csb3r</t>
+  </si>
+  <si>
+    <t>cu0bf</t>
+  </si>
+  <si>
+    <t>cxczi</t>
+  </si>
+  <si>
+    <t>d1rrq</t>
+  </si>
+  <si>
+    <t>d3vx1</t>
+  </si>
+  <si>
+    <t>d5313</t>
+  </si>
+  <si>
+    <t>d7xvx</t>
+  </si>
+  <si>
+    <t>dblt7</t>
+  </si>
+  <si>
+    <t>dg97g</t>
+  </si>
+  <si>
+    <t>dgut3</t>
+  </si>
+  <si>
+    <t>djmsp</t>
+  </si>
+  <si>
+    <t>drzfo</t>
+  </si>
+  <si>
+    <t>dtq6v</t>
+  </si>
+  <si>
+    <t>dwybj</t>
+  </si>
+  <si>
+    <t>dy0yh</t>
+  </si>
+  <si>
+    <t>dzpey</t>
+  </si>
+  <si>
+    <t>e0ers</t>
+  </si>
+  <si>
+    <t>e1tyw</t>
+  </si>
+  <si>
+    <t>e5d9e</t>
+  </si>
+  <si>
+    <t>eigyi</t>
+  </si>
+  <si>
+    <t>ekl7m</t>
+  </si>
+  <si>
+    <t>esepv</t>
+  </si>
+  <si>
+    <t>evzpq</t>
+  </si>
+  <si>
+    <t>ew2ur</t>
+  </si>
+  <si>
+    <t>ew6d1</t>
+  </si>
+  <si>
+    <t>f0gsl</t>
+  </si>
+  <si>
+    <t>f1gp2</t>
+  </si>
+  <si>
+    <t>f6020</t>
+  </si>
+  <si>
+    <t>f69cx</t>
+  </si>
+  <si>
+    <t>f69e5</t>
+  </si>
+  <si>
+    <t>f9cik</t>
+  </si>
+  <si>
+    <t>fazur</t>
+  </si>
+  <si>
+    <t>fd7no</t>
+  </si>
+  <si>
+    <t>ffz3d</t>
+  </si>
+  <si>
+    <t>fgvqp</t>
+  </si>
+  <si>
+    <t>fhrmq</t>
+  </si>
+  <si>
+    <t>foo6x</t>
+  </si>
+  <si>
+    <t>fqi2u</t>
+  </si>
+  <si>
+    <t>fry7u</t>
+  </si>
+  <si>
+    <t>frych</t>
+  </si>
+  <si>
+    <t>g16qg</t>
+  </si>
+  <si>
+    <t>g1acl</t>
+  </si>
+  <si>
+    <t>g1k8f</t>
+  </si>
+  <si>
+    <t>g4pxt</t>
+  </si>
+  <si>
+    <t>g74td</t>
+  </si>
+  <si>
+    <t>gd2q0</t>
+  </si>
+  <si>
+    <t>gds2r</t>
+  </si>
+  <si>
+    <t>ggwcr</t>
+  </si>
+  <si>
+    <t>ghsbm</t>
+  </si>
+  <si>
+    <t>ght2g</t>
+  </si>
+  <si>
+    <t>gib34</t>
+  </si>
+  <si>
+    <t>gimck</t>
+  </si>
+  <si>
+    <t>giy7j</t>
+  </si>
+  <si>
+    <t>grjcc</t>
+  </si>
+  <si>
+    <t>gzd1u</t>
+  </si>
+  <si>
+    <t>h2g8k</t>
+  </si>
+  <si>
+    <t>h919r</t>
+  </si>
+  <si>
+    <t>hanco</t>
+  </si>
+  <si>
+    <t>hfwfq</t>
+  </si>
+  <si>
+    <t>hh786</t>
+  </si>
+  <si>
+    <t>hsg5k</t>
+  </si>
+  <si>
+    <t>hvuai</t>
+  </si>
+  <si>
+    <t>hyz8r</t>
+  </si>
+  <si>
+    <t>i3r2c</t>
+  </si>
+  <si>
+    <t>i6tpb</t>
+  </si>
+  <si>
+    <t>i825d</t>
+  </si>
+  <si>
+    <t>icw9x</t>
+  </si>
+  <si>
+    <t>idi2d</t>
+  </si>
+  <si>
+    <t>ietws</t>
+  </si>
+  <si>
+    <t>iimiq</t>
+  </si>
+  <si>
+    <t>iwf4k</t>
+  </si>
+  <si>
+    <t>izm7c</t>
+  </si>
+  <si>
+    <t>j09h3</t>
+  </si>
+  <si>
+    <t>j31d1</t>
+  </si>
+  <si>
+    <t>j4pgw</t>
+  </si>
+  <si>
+    <t>j989x</t>
+  </si>
+  <si>
+    <t>jcqtn</t>
+  </si>
+  <si>
+    <t>jdhek</t>
+  </si>
+  <si>
+    <t>jeydy</t>
+  </si>
+  <si>
+    <t>jfpt6</t>
+  </si>
+  <si>
+    <t>jgm7l</t>
+  </si>
+  <si>
+    <t>jn1g6</t>
+  </si>
+  <si>
+    <t>jnk1o</t>
+  </si>
+  <si>
+    <t>jo6gz</t>
+  </si>
+  <si>
+    <t>jto8l</t>
+  </si>
+  <si>
+    <t>jyznu</t>
+  </si>
+  <si>
+    <t>jz77q</t>
+  </si>
+  <si>
+    <t>k02mm</t>
+  </si>
+  <si>
+    <t>k2fna</t>
+  </si>
+  <si>
+    <t>k905a</t>
+  </si>
+  <si>
+    <t>k923g</t>
+  </si>
+  <si>
+    <t>kafyf</t>
+  </si>
+  <si>
+    <t>kbdo2</t>
+  </si>
+  <si>
+    <t>kbgsn</t>
+  </si>
+  <si>
+    <t>kc9p4</t>
+  </si>
+  <si>
+    <t>kd1jz</t>
+  </si>
+  <si>
+    <t>keioa</t>
+  </si>
+  <si>
+    <t>kf2j1</t>
+  </si>
+  <si>
+    <t>kmgzb</t>
+  </si>
+  <si>
+    <t>kw8eb</t>
+  </si>
+  <si>
+    <t>kwjo5</t>
+  </si>
+  <si>
+    <t>kzk2p</t>
+  </si>
+  <si>
+    <t>kzlcd</t>
+  </si>
+  <si>
+    <t>l2bmf</t>
+  </si>
+  <si>
+    <t>l2wjn</t>
+  </si>
+  <si>
+    <t>l8chx</t>
+  </si>
+  <si>
+    <t>la697</t>
+  </si>
+  <si>
+    <t>lce5l</t>
+  </si>
+  <si>
+    <t>lec1o</t>
+  </si>
+  <si>
+    <t>lhtqe</t>
+  </si>
+  <si>
+    <t>lks74</t>
+  </si>
+  <si>
+    <t>llvba</t>
+  </si>
+  <si>
+    <t>lnbbz</t>
+  </si>
+  <si>
+    <t>lptr9</t>
+  </si>
+  <si>
+    <t>lq5mk</t>
+  </si>
+  <si>
+    <t>lqi84</t>
+  </si>
+  <si>
+    <t>lqt78</t>
+  </si>
+  <si>
+    <t>lw4k9</t>
+  </si>
+  <si>
+    <t>lw8l7</t>
+  </si>
+  <si>
+    <t>lz0lk</t>
+  </si>
+  <si>
+    <t>m1p6m</t>
+  </si>
+  <si>
+    <t>m3157</t>
+  </si>
+  <si>
+    <t>m37wr</t>
+  </si>
+  <si>
+    <t>m3jnj</t>
+  </si>
+  <si>
+    <t>m5aa3</t>
+  </si>
+  <si>
+    <t>m9vn3</t>
+  </si>
+  <si>
+    <t>mevr8</t>
+  </si>
+  <si>
+    <t>chile 18-9</t>
+  </si>
+  <si>
+    <t>mgi3b</t>
+  </si>
+  <si>
+    <t>mgwe2</t>
+  </si>
+  <si>
+    <t>mj541</t>
+  </si>
+  <si>
+    <t>ml11f</t>
+  </si>
+  <si>
+    <t>mljxq</t>
+  </si>
+  <si>
+    <t>mrlc4</t>
+  </si>
+  <si>
+    <t>mwobg</t>
+  </si>
+  <si>
+    <t>n1uvg</t>
+  </si>
+  <si>
+    <t>n398r</t>
+  </si>
+  <si>
+    <t>nb7u7</t>
+  </si>
+  <si>
+    <t>nfwrl</t>
+  </si>
+  <si>
+    <t>nk19r</t>
+  </si>
+  <si>
+    <t>nkb9f</t>
+  </si>
+  <si>
+    <t>nm84l</t>
+  </si>
+  <si>
+    <t>nogpw</t>
+  </si>
+  <si>
+    <t>nommu</t>
+  </si>
+  <si>
+    <t>npr4w</t>
+  </si>
+  <si>
+    <t>nqttz</t>
+  </si>
+  <si>
+    <t>ntdee</t>
+  </si>
+  <si>
+    <t>o0uqe</t>
+  </si>
+  <si>
+    <t>o0vog</t>
+  </si>
+  <si>
+    <t>o20pd</t>
+  </si>
+  <si>
+    <t>o2a70</t>
+  </si>
+  <si>
+    <t>o4dxf</t>
+  </si>
+  <si>
+    <t>o68gn</t>
+  </si>
+  <si>
+    <t>o7yqf</t>
+  </si>
+  <si>
+    <t>ogtzz</t>
+  </si>
+  <si>
+    <t>olog7</t>
+  </si>
+  <si>
+    <t>omo7b</t>
+  </si>
+  <si>
+    <t>oobl9</t>
+  </si>
+  <si>
+    <t>oom73</t>
+  </si>
+  <si>
+    <t>opi8p</t>
+  </si>
+  <si>
+    <t>oquij</t>
+  </si>
+  <si>
+    <t>orib5</t>
+  </si>
+  <si>
+    <t>otp6a</t>
+  </si>
+  <si>
+    <t>otrj3</t>
+  </si>
+  <si>
+    <t>oulwk</t>
+  </si>
+  <si>
+    <t>oxmdi</t>
+  </si>
+  <si>
+    <t>oyqgm</t>
+  </si>
+  <si>
+    <t>p1lhf</t>
+  </si>
+  <si>
+    <t>p20w9</t>
+  </si>
+  <si>
+    <t>p5pw9</t>
+  </si>
+  <si>
+    <t>p712p</t>
+  </si>
+  <si>
+    <t>pat6g</t>
+  </si>
+  <si>
+    <t>pb3kn</t>
+  </si>
+  <si>
+    <t>pdm2x</t>
+  </si>
+  <si>
+    <t>pdnrj</t>
+  </si>
+  <si>
+    <t>pgbg4</t>
+  </si>
+  <si>
+    <t>pizek</t>
+  </si>
+  <si>
+    <t>pnbpq</t>
+  </si>
+  <si>
+    <t>poom4</t>
+  </si>
+  <si>
+    <t>prpiy</t>
+  </si>
+  <si>
+    <t>prxq5</t>
+  </si>
+  <si>
+    <t>ptndk</t>
+  </si>
+  <si>
+    <t>pvz8d</t>
+  </si>
+  <si>
+    <t>pwct1</t>
+  </si>
+  <si>
+    <t>pxlp7</t>
+  </si>
+  <si>
+    <t>pzlve</t>
+  </si>
+  <si>
+    <t>q0ap1</t>
+  </si>
+  <si>
+    <t>q0ihv</t>
+  </si>
+  <si>
+    <t>q0n5k</t>
+  </si>
+  <si>
+    <t>q4cyf</t>
+  </si>
+  <si>
+    <t>q5rw6</t>
+  </si>
+  <si>
+    <t>qbp60</t>
+  </si>
+  <si>
+    <t>qeexw</t>
+  </si>
+  <si>
+    <t>qeumd</t>
+  </si>
+  <si>
+    <t>qh9tl</t>
+  </si>
+  <si>
+    <t>qiunq</t>
+  </si>
+  <si>
+    <t>qkngh</t>
+  </si>
+  <si>
+    <t>qku2a</t>
+  </si>
+  <si>
+    <t>qlbxn</t>
+  </si>
+  <si>
+    <t>qm7b8</t>
+  </si>
+  <si>
+    <t>qurwe</t>
+  </si>
+  <si>
+    <t>qvwep</t>
+  </si>
+  <si>
+    <t>qx1yn</t>
+  </si>
+  <si>
+    <t>r66x2</t>
+  </si>
+  <si>
+    <t>r743n</t>
+  </si>
+  <si>
+    <t>rc56c</t>
+  </si>
+  <si>
+    <t>rd2pe</t>
+  </si>
+  <si>
+    <t>rg7zs</t>
+  </si>
+  <si>
+    <t>rgcnm</t>
+  </si>
+  <si>
+    <t>rhida</t>
+  </si>
+  <si>
+    <t>rii5k</t>
+  </si>
+  <si>
+    <t>rkb6r</t>
+  </si>
+  <si>
+    <t>rmo6u</t>
+  </si>
+  <si>
+    <t>rog18</t>
+  </si>
+  <si>
+    <t>s0zxc</t>
+  </si>
+  <si>
+    <t>s3524</t>
+  </si>
+  <si>
+    <t>s4lan</t>
+  </si>
+  <si>
+    <t>sdauc</t>
+  </si>
+  <si>
+    <t>sedlq</t>
+  </si>
+  <si>
+    <t>sehn8</t>
+  </si>
+  <si>
+    <t>sh1p8</t>
+  </si>
+  <si>
+    <t>sine8</t>
+  </si>
+  <si>
+    <t>sp40q</t>
+  </si>
+  <si>
+    <t>sru3k</t>
+  </si>
+  <si>
+    <t>su8io</t>
+  </si>
+  <si>
+    <t>sulzg</t>
+  </si>
+  <si>
+    <t>suxua</t>
+  </si>
+  <si>
+    <t>sv0ej</t>
+  </si>
+  <si>
+    <t>svah6</t>
+  </si>
+  <si>
+    <t>svgdi</t>
+  </si>
+  <si>
+    <t>sy87z</t>
+  </si>
+  <si>
+    <t>syjbk</t>
+  </si>
+  <si>
+    <t>t236f</t>
+  </si>
+  <si>
+    <t>t3h45</t>
+  </si>
+  <si>
+    <t>t3vrc</t>
+  </si>
+  <si>
+    <t>t6lnq</t>
+  </si>
+  <si>
+    <t>td83l</t>
+  </si>
+  <si>
+    <t>tg4lo</t>
+  </si>
+  <si>
+    <t>tknt6</t>
+  </si>
+  <si>
+    <t>tmq8s</t>
+  </si>
+  <si>
+    <t>tn53d</t>
+  </si>
+  <si>
+    <t>tn6y8</t>
+  </si>
+  <si>
+    <t>tnz8w</t>
+  </si>
+  <si>
+    <t>tqpv6</t>
+  </si>
+  <si>
+    <t>tqq3z</t>
+  </si>
+  <si>
+    <t>tsg4o</t>
+  </si>
+  <si>
+    <t>tvaco</t>
+  </si>
+  <si>
+    <t>tw3o6</t>
+  </si>
+  <si>
+    <t>u48z6</t>
+  </si>
+  <si>
+    <t>u837z</t>
+  </si>
+  <si>
+    <t>ucmr1</t>
+  </si>
+  <si>
+    <t>ucwe5</t>
+  </si>
+  <si>
+    <t>uiko6</t>
+  </si>
+  <si>
+    <t>ujt3d</t>
+  </si>
+  <si>
+    <t>uodmb</t>
+  </si>
+  <si>
+    <t>urrth</t>
+  </si>
+  <si>
+    <t>uw9jx</t>
+  </si>
+  <si>
+    <t>uwmq3</t>
+  </si>
+  <si>
+    <t>uwri1</t>
+  </si>
+  <si>
+    <t>v2pez</t>
+  </si>
+  <si>
+    <t>vc4h4</t>
+  </si>
+  <si>
+    <t>vc4r3</t>
+  </si>
+  <si>
+    <t>vfr5d</t>
+  </si>
+  <si>
+    <t>vmvb7</t>
+  </si>
+  <si>
+    <t>vn7tw</t>
+  </si>
+  <si>
+    <t>vvmtv</t>
+  </si>
+  <si>
+    <t>vw9oa</t>
+  </si>
+  <si>
+    <t>vz0a7</t>
+  </si>
+  <si>
+    <t>w1b61</t>
+  </si>
+  <si>
+    <t>w44y4</t>
+  </si>
+  <si>
+    <t>w5a69</t>
+  </si>
+  <si>
+    <t>w7lx2</t>
+  </si>
+  <si>
+    <t>w9idb</t>
+  </si>
+  <si>
+    <t>we5qb</t>
+  </si>
+  <si>
+    <t>weh3c</t>
+  </si>
+  <si>
+    <t>wi7h5</t>
+  </si>
+  <si>
+    <t>wlgd5</t>
+  </si>
+  <si>
+    <t>wpq6q</t>
+  </si>
+  <si>
+    <t>wr79c</t>
+  </si>
+  <si>
+    <t>ws5kc</t>
+  </si>
+  <si>
+    <t>wv2ln</t>
+  </si>
+  <si>
+    <t>wxjko</t>
+  </si>
+  <si>
+    <t>x023y</t>
+  </si>
+  <si>
+    <t>x39gb</t>
+  </si>
+  <si>
+    <t>x47oj</t>
+  </si>
+  <si>
+    <t>x82hp</t>
+  </si>
+  <si>
+    <t>x981l</t>
+  </si>
+  <si>
+    <t>xa5rr</t>
+  </si>
+  <si>
+    <t>xbikm</t>
+  </si>
+  <si>
+    <t>xgq6l</t>
+  </si>
+  <si>
+    <t>xn5gi</t>
+  </si>
+  <si>
+    <t>xptye</t>
+  </si>
+  <si>
+    <t>xsq4q</t>
+  </si>
+  <si>
+    <t>xwh1h</t>
+  </si>
+  <si>
+    <t>xya1t</t>
+  </si>
+  <si>
+    <t>xzvbq</t>
+  </si>
+  <si>
+    <t>y2akw</t>
+  </si>
+  <si>
+    <t>y2sxz</t>
+  </si>
+  <si>
+    <t>y3bjn</t>
+  </si>
+  <si>
+    <t>ya47n</t>
+  </si>
+  <si>
+    <t>ybjw0</t>
+  </si>
+  <si>
+    <t>ycimq</t>
+  </si>
+  <si>
+    <t>yd2jj</t>
+  </si>
+  <si>
+    <t>ye20d</t>
+  </si>
+  <si>
+    <t>ynimb</t>
+  </si>
+  <si>
+    <t>ypoqn</t>
+  </si>
+  <si>
+    <t>yq04w</t>
+  </si>
+  <si>
+    <t>yv966</t>
+  </si>
+  <si>
+    <t>z3212</t>
+  </si>
+  <si>
+    <t>z331u</t>
+  </si>
+  <si>
+    <t>z4x6f</t>
+  </si>
+  <si>
+    <t>z6tui</t>
+  </si>
+  <si>
+    <t>z9bxb</t>
+  </si>
+  <si>
+    <t>z9ia3</t>
+  </si>
+  <si>
+    <t>z9n0q</t>
+  </si>
+  <si>
+    <t>z9ybi</t>
+  </si>
+  <si>
+    <t>ze7l9</t>
+  </si>
+  <si>
+    <t>zfr6z</t>
+  </si>
+  <si>
+    <t>zgwdw</t>
+  </si>
+  <si>
+    <t>zh7y1</t>
+  </si>
+  <si>
+    <t>zhs41</t>
+  </si>
+  <si>
+    <t>zk8i8</t>
+  </si>
+  <si>
+    <t>zlbmi</t>
+  </si>
+  <si>
+    <t>zlzur</t>
+  </si>
+  <si>
+    <t>zqgmn</t>
+  </si>
+  <si>
+    <t>zth8f</t>
+  </si>
+  <si>
+    <t>zz25c</t>
+  </si>
+  <si>
+    <t>zz524</t>
   </si>
 </sst>
 </file>
@@ -1975,8 +3478,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2332,761 +3838,764 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B489"/>
+  <dimension ref="A1:B989"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A470" workbookViewId="0">
-      <selection activeCell="C480" sqref="C480"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D487" sqref="D487"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="1" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="1" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="1" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="1" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="1" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="1" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="1" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="1" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="1" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="1" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="1" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="1" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="1" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" s="1" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44" s="1" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" s="1" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" s="1" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="A48" s="1" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="A49" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="A50" s="1" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="A51" s="1" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="A52" s="1" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53" s="1" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="A54" s="1" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="A55" s="1" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="A56" s="1" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="A57" s="1" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="A58" s="1" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="A59" s="1" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="A60" s="1" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="A61" s="1" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="A62" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="A63" s="1" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="A64" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="A65" s="1" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="A66" s="1" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="A67" s="1" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="A68" s="1" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="A69" s="1" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="A70" s="1" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="A71" s="1" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="A72" s="1" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="A73" s="1" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="A74" s="1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="A75" s="1" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="A76" s="1" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="A77" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="A78" s="1" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="A79" s="1" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="A80" s="1" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="A81" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="A82" s="1" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="A83" s="1" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="A84" s="1" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="A85" s="1" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="A86" s="1" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="A87" s="1" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="A88" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="A89" s="1" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="A90" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="A91" s="1" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="A92" s="1" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="A93" s="1" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="A94" s="1" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="A95" s="1" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="A96" s="1" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="A97" s="1" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="A98" s="1" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="A99" s="1" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="A100" s="1" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="A101" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="A102" s="1" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="A103" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="A104" s="1" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="A105" s="1" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="A106" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="A107" s="1" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="A108" s="1" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="A109" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="A110" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="A111" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="A112" s="1" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="A113" s="1" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="A114" s="1" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="A115" s="1" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="A116" s="1" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="A117" s="1" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="A118" s="1" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="A119" s="1" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+      <c r="A120" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+      <c r="A121" s="1" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+      <c r="A122" s="1" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+      <c r="A123" s="1" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+      <c r="A124" s="1" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+      <c r="A125" s="1" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+      <c r="A126" s="1" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+      <c r="A127" s="1" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+      <c r="A128" s="1" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+      <c r="A129" s="1" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+      <c r="A130" s="1" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+      <c r="A131" s="1" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+      <c r="A132" s="1" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+      <c r="A133" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="A134" s="1" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+      <c r="A135" s="1" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="A136" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+      <c r="A137" s="1" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+      <c r="A138" s="1" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+      <c r="A139" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+      <c r="A140" s="1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+      <c r="A141" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+      <c r="A142" s="1" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+      <c r="A143" s="1" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+      <c r="A144" s="1" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+      <c r="A145" s="1" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+      <c r="A146" s="1" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+      <c r="A147" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+      <c r="A148" s="1" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+      <c r="A149" s="1" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+      <c r="A150" s="1" t="s">
         <v>328</v>
       </c>
       <c r="B150" t="s">
@@ -3094,7 +4603,7 @@
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+      <c r="A151" s="1" t="s">
         <v>191</v>
       </c>
       <c r="B151" t="s">
@@ -3102,747 +4611,747 @@
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+      <c r="A152" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+      <c r="A153" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+      <c r="A154" s="1" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+      <c r="A155" s="1" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+      <c r="A156" s="1" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+      <c r="A157" s="1" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+      <c r="A158" s="1" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+      <c r="A159" s="1" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+      <c r="A160" s="1" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+      <c r="A161" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+      <c r="A162" s="1" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+      <c r="A163" s="1" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+      <c r="A164" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+      <c r="A165" s="1" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+      <c r="A166" s="1" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+      <c r="A167" s="1" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+      <c r="A168" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+      <c r="A169" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+      <c r="A170" s="1" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+      <c r="A171" s="1" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+      <c r="A172" s="1" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+      <c r="A173" s="1" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+      <c r="A174" s="1" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+      <c r="A175" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+      <c r="A176" s="1" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+      <c r="A177" s="1" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+      <c r="A178" s="1" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+      <c r="A179" s="1" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+      <c r="A180" s="1" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
+      <c r="A181" s="1" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+      <c r="A182" s="1" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+      <c r="A183" s="1" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+      <c r="A184" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+      <c r="A185" s="1" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
+      <c r="A186" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+      <c r="A187" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
+      <c r="A188" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
+      <c r="A189" s="1" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+      <c r="A190" s="1" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
+      <c r="A191" s="1" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
+      <c r="A192" s="1" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+      <c r="A193" s="1" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
+      <c r="A194" s="1" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
+      <c r="A195" s="1" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
+      <c r="A196" s="1" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
+      <c r="A197" s="1" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
+      <c r="A198" s="1" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+      <c r="A199" s="1" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
+      <c r="A200" s="1" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
+      <c r="A201" s="1" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
+      <c r="A202" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
+      <c r="A203" s="1" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
+      <c r="A204" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
+      <c r="A205" s="1" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
+      <c r="A206" s="1" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
+      <c r="A207" s="1" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
+      <c r="A208" s="1" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
+      <c r="A209" s="1" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
+      <c r="A210" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
+      <c r="A211" s="1" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
+      <c r="A212" s="1" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
+      <c r="A213" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
+      <c r="A214" s="1" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
+      <c r="A215" s="1" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
+      <c r="A216" s="1" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
+      <c r="A217" s="1" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
+      <c r="A218" s="1" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
+      <c r="A219" s="1" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
+      <c r="A220" s="1" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
+      <c r="A221" s="1" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
+      <c r="A222" s="1" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
+      <c r="A223" s="1" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
+      <c r="A224" s="1" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
+      <c r="A225" s="1" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
+      <c r="A226" s="1" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
+      <c r="A227" s="1" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
+      <c r="A228" s="1" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
+      <c r="A229" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
+      <c r="A230" s="1" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
+      <c r="A231" s="1" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
+      <c r="A232" s="1" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
+      <c r="A233" s="1" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
+      <c r="A234" s="1" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
+      <c r="A235" s="1" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
+      <c r="A236" s="1" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
+      <c r="A237" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
+      <c r="A238" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
+      <c r="A239" s="1" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
+      <c r="A240" s="1" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
+      <c r="A241" s="1" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
+      <c r="A242" s="1" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
+      <c r="A243" s="1" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
+      <c r="A244" s="1" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
+      <c r="A245" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
+      <c r="A246" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
+      <c r="A247" s="1" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
+      <c r="A248" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
+      <c r="A249" s="1" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
+      <c r="A250" s="1" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
+      <c r="A251" s="1" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
+      <c r="A252" s="1" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
+      <c r="A253" s="1" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
+      <c r="A254" s="1" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
+      <c r="A255" s="1" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
+      <c r="A256" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
+      <c r="A257" s="1" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
+      <c r="A258" s="1" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
+      <c r="A259" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
+      <c r="A260" s="1" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
+      <c r="A261" s="1" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
+      <c r="A262" s="1" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
+      <c r="A263" s="1" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
+      <c r="A264" s="1" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
+      <c r="A265" s="1" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
+      <c r="A266" s="1" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
+      <c r="A267" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
+      <c r="A268" s="1" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
+      <c r="A269" s="1" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
+      <c r="A270" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
+      <c r="A271" s="1" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
+      <c r="A272" s="1" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
+      <c r="A273" s="1" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
+      <c r="A274" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
+      <c r="A275" s="1" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
+      <c r="A276" s="1" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
+      <c r="A277" s="1" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
+      <c r="A278" s="1" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
+      <c r="A279" s="1" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
+      <c r="A280" s="1" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
+      <c r="A281" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
+      <c r="A282" s="1" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
+      <c r="A283" s="1" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
+      <c r="A284" s="1" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
+      <c r="A285" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
+      <c r="A286" s="1" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
+      <c r="A287" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
+      <c r="A288" s="1" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
+      <c r="A289" s="1" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
+      <c r="A290" s="1" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
+      <c r="A291" s="1" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
+      <c r="A292" s="1" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
+      <c r="A293" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
+      <c r="A294" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
+      <c r="A295" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A296" t="s">
+      <c r="A296" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
+      <c r="A297" s="1" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
+      <c r="A298" s="1" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
+      <c r="A299" s="1" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
+      <c r="A300" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B300" t="s">
@@ -3850,902 +5359,908 @@
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
+      <c r="A301" s="1" t="s">
         <v>464</v>
       </c>
+      <c r="B301" t="s">
+        <v>491</v>
+      </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A302" t="s">
+      <c r="A302" s="1" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A303" t="s">
+      <c r="A303" s="1" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A304" t="s">
+      <c r="A304" s="1" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305" t="s">
+      <c r="A305" s="1" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306" t="s">
+      <c r="A306" s="1" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A307" t="s">
+      <c r="A307" s="1" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A308" t="s">
+      <c r="A308" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A309" t="s">
+      <c r="A309" s="1" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A310" t="s">
+      <c r="A310" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A311" t="s">
+      <c r="A311" s="1" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A312" t="s">
+      <c r="A312" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A313" t="s">
+      <c r="A313" s="1" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A314" t="s">
+      <c r="A314" s="1" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A315" t="s">
+      <c r="A315" s="1" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A316" t="s">
+      <c r="A316" s="1" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A317" t="s">
+      <c r="A317" s="1" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A318" t="s">
+      <c r="A318" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A319" t="s">
+      <c r="A319" s="1" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A320" t="s">
+      <c r="A320" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A321" t="s">
+      <c r="A321" s="1" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A322" t="s">
+      <c r="A322" s="1" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A323" t="s">
+      <c r="A323" s="1" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A324" t="s">
+      <c r="A324" s="1" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A325" t="s">
+      <c r="A325" s="1" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A326" t="s">
+      <c r="A326" s="1" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A327" t="s">
+      <c r="A327" s="1" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A328" t="s">
+      <c r="A328" s="1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A329" t="s">
+      <c r="A329" s="1" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A330" t="s">
+      <c r="A330" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A331" t="s">
+      <c r="A331" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A332" t="s">
+      <c r="A332" s="1" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A333" t="s">
+      <c r="A333" s="1" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A334" t="s">
+      <c r="A334" s="1" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A335" t="s">
+      <c r="A335" s="1" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A336" t="s">
+      <c r="A336" s="1" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A337" t="s">
+      <c r="A337" s="1" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A338" t="s">
+      <c r="A338" s="1" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A339" t="s">
+      <c r="A339" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A340" t="s">
+      <c r="A340" s="1" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A341" t="s">
+      <c r="A341" s="1" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A342" t="s">
+      <c r="A342" s="1" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A343" t="s">
+      <c r="A343" s="1" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A344" t="s">
+      <c r="A344" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A345" t="s">
+      <c r="A345" s="1" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A346" t="s">
+      <c r="A346" s="1" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A347" t="s">
+      <c r="A347" s="1" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A348" t="s">
+      <c r="A348" s="1" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A349" t="s">
+      <c r="A349" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A350" t="s">
+      <c r="A350" s="1" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A351" t="s">
+      <c r="A351" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A352" t="s">
+      <c r="A352" s="1" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A353" t="s">
+      <c r="A353" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A354" t="s">
+      <c r="A354" s="1" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A355" t="s">
+      <c r="A355" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A356" t="s">
+      <c r="A356" s="1" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A357" t="s">
+      <c r="A357" s="1" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A358" t="s">
+      <c r="A358" s="1" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A359" t="s">
+      <c r="A359" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A360" t="s">
+      <c r="A360" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A361" t="s">
+      <c r="A361" s="1" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A362" t="s">
+      <c r="A362" s="1" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A363" t="s">
+      <c r="A363" s="1" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A364" t="s">
+      <c r="A364" s="1" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A365" t="s">
+      <c r="A365" s="1" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A366" t="s">
+      <c r="A366" s="1" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A367" t="s">
+      <c r="A367" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A368" t="s">
+      <c r="A368" s="1" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A369" t="s">
+      <c r="A369" s="1" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A370" t="s">
+      <c r="A370" s="1" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A371" t="s">
+      <c r="A371" s="1" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A372" t="s">
+      <c r="A372" s="1" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A373" t="s">
+      <c r="A373" s="1" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A374" t="s">
+      <c r="A374" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A375" t="s">
+      <c r="A375" s="1" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A376" t="s">
+      <c r="A376" s="1" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A377" t="s">
+      <c r="A377" s="1" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A378" t="s">
+      <c r="A378" s="1" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A379" t="s">
+      <c r="A379" s="1" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A380" t="s">
+      <c r="A380" s="1" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A381" t="s">
+      <c r="A381" s="1" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A382" t="s">
+      <c r="A382" s="1" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A383" t="s">
+      <c r="A383" s="1" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A384" t="s">
+      <c r="A384" s="1" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A385" t="s">
+      <c r="A385" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A386" t="s">
+      <c r="A386" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A387" t="s">
+      <c r="A387" s="1" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A388" t="s">
+      <c r="A388" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A389" t="s">
+      <c r="A389" s="1" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A390" t="s">
+      <c r="A390" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A391" t="s">
+      <c r="A391" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A392" t="s">
+      <c r="A392" s="1" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A393" t="s">
+      <c r="A393" s="1" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A394" t="s">
+      <c r="A394" s="1" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A395" t="s">
+      <c r="A395" s="1" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A396" t="s">
+      <c r="A396" s="1" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A397" t="s">
+      <c r="A397" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A398" t="s">
+      <c r="A398" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A399" t="s">
+      <c r="A399" s="1" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A400" t="s">
+      <c r="A400" s="1" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A401" t="s">
+      <c r="A401" s="1" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A402" t="s">
+      <c r="A402" s="1" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A403" t="s">
+      <c r="A403" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A404" t="s">
+      <c r="A404" s="1" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A405" t="s">
+      <c r="A405" s="1" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A406" t="s">
+      <c r="A406" s="1" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A407" t="s">
+      <c r="A407" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A408" t="s">
+      <c r="A408" s="1" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A409" t="s">
+      <c r="A409" s="1" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A410" t="s">
+      <c r="A410" s="1" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A411" t="s">
+      <c r="A411" s="1" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A412" t="s">
+      <c r="A412" s="1" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A413" t="s">
+      <c r="A413" s="1" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A414" t="s">
+      <c r="A414" s="1" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A415" t="s">
+      <c r="A415" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A416" t="s">
+      <c r="A416" s="1" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A417" t="s">
+      <c r="A417" s="1" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A418" t="s">
+      <c r="A418" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A419" t="s">
+      <c r="A419" s="1" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A420" t="s">
+      <c r="A420" s="1" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A421" t="s">
+      <c r="A421" s="1" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A422" t="s">
+      <c r="A422" s="1" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A423" t="s">
+      <c r="A423" s="1" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A424" t="s">
+      <c r="A424" s="1" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A425" t="s">
+      <c r="A425" s="1" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A426" t="s">
+      <c r="A426" s="1" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A427" t="s">
+      <c r="A427" s="1" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A428" t="s">
+      <c r="A428" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A429" t="s">
+      <c r="A429" s="1" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A430" t="s">
+      <c r="A430" s="1" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A431" t="s">
+      <c r="A431" s="1" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A432" t="s">
+      <c r="A432" s="1" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A433" t="s">
+      <c r="A433" s="1" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A434" t="s">
+      <c r="A434" s="1" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A435" t="s">
+      <c r="A435" s="1" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A436" t="s">
+      <c r="A436" s="1" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A437" t="s">
+      <c r="A437" s="1" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A438" t="s">
+      <c r="A438" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A439" t="s">
+      <c r="A439" s="1" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A440" t="s">
+      <c r="A440" s="1" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A441" t="s">
+      <c r="A441" s="1" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A442" t="s">
+      <c r="A442" s="1" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A443" t="s">
+      <c r="A443" s="1" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A444" t="s">
+      <c r="A444" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A445" t="s">
+      <c r="A445" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A446" t="s">
+      <c r="A446" s="1" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A447" t="s">
+      <c r="A447" s="1" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A448" t="s">
+      <c r="A448" s="1" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A449" t="s">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A449" s="1" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A450" t="s">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A450" s="1" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A451" t="s">
+      <c r="B450" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A451" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A452" t="s">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A452" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A453" t="s">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A453" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A454" t="s">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A454" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A455" t="s">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A455" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A456" t="s">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A456" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A457" t="s">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A457" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A458" t="s">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A458" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A459" t="s">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A459" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A460" t="s">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A460" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A461" t="s">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A461" s="1" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A462" t="s">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A462" s="1" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A463" t="s">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A463" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A464" t="s">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A464" s="1" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A465" t="s">
+      <c r="A465" s="1" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A466" t="s">
+      <c r="A466" s="1" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A467" t="s">
+      <c r="A467" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A468" t="s">
+      <c r="A468" s="1" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A469" t="s">
+      <c r="A469" s="1" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A470" t="s">
+      <c r="A470" s="1" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A471" t="s">
+      <c r="A471" s="1" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A472" t="s">
+      <c r="A472" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A473" t="s">
+      <c r="A473" s="1" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A474" t="s">
+      <c r="A474" s="1" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A475" t="s">
+      <c r="A475" s="1" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A476" t="s">
+      <c r="A476" s="1" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A477" t="s">
+      <c r="A477" s="1" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A478" t="s">
+      <c r="A478" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A479" t="s">
+      <c r="A479" s="1" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A480" t="s">
+      <c r="A480" s="1" t="s">
         <v>425</v>
       </c>
       <c r="B480" t="s">
@@ -4753,51 +6268,2557 @@
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A481" t="s">
+      <c r="A481" s="1" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A482" t="s">
+      <c r="A482" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A483" t="s">
+      <c r="A483" s="1" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A484" t="s">
+      <c r="A484" s="1" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A485" t="s">
+      <c r="A485" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A486" t="s">
+      <c r="A486" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A487" t="s">
+      <c r="A487" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A488" t="s">
+      <c r="A488" s="1" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A489" t="s">
+      <c r="A489" s="1" t="s">
         <v>289</v>
       </c>
       <c r="B489" t="s">
         <v>489</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A490" s="1">
+        <v>35099</v>
+      </c>
+      <c r="B490" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A491" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A492" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A493" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A494" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A495" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A496" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A497" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A498" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A499" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A500" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A501" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A502" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A503" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A504" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A505" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A506" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A507" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A508" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A509" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A510" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A511" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A512" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A513" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A514" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A515" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A516" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A517" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A518" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A519" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A520" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A521" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A522" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A523" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A524" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A525" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A526" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A527" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A528" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A529" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A530" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A531" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A532" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A533" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A534" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A535" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A536" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A537" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A538" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A539" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A540" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A541" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A542" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A543" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A544" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A545" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A546" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A547" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A548" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A549" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A550" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A551" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A552" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A553" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A554" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A555" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A556" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A557" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A558" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A559" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A560" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A561" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A562" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A563" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A564" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A565" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A566" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A567" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A568" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A569" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A570" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A571" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A572" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A573" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A574" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A575" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A576" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A577" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A578" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A579" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A580" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A581" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A582" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A583" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A584" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A585" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A586" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A587" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A588" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A589" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A590" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A591" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A592" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A593" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A594" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A595" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A596" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A597" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A598" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A599" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A600" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A601" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A602" s="1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A603" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A604" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A605" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A606" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A607" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A608" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A609" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A610" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A611" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A612" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A613" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A614" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A615" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A616" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A617" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A618" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A619" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A620" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A621" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A622" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A623" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A624" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A625" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A626" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A627" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A628" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A629" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A630" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A631" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A632" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A633" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A634" s="1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A635" s="1" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A636" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A637" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A638" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A639" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A640" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A641" s="1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A642" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A643" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A644" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A645" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A646" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A647" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A648" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A649" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A650" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A651" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A652" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A653" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A654" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A655" s="1" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A656" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A657" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A658" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A659" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A660" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A661" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A662" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A663" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A664" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A665" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A666" s="1" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A667" s="1" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A668" s="1" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A669" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A670" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A671" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A672" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A673" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A674" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A675" s="1" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A676" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A677" s="1" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A678" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A679" s="1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A680" s="1" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A681" s="1" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A682" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A683" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A684" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A685" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A686" s="1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A687" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="688" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A688" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A689" s="1" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A690" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A691" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A692" s="1" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A693" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A694" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A695" s="1" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="696" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A696" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="697" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A697" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A698" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A699" s="1" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A700" s="1" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A701" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A702" s="1" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="703" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A703" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A704" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A705" s="1" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A706" s="1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A707" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A708" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A709" s="1" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A710" s="1" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A711" s="1" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A712" s="1" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A713" s="1" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A714" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A715" s="1" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A716" s="1" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A717" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="718" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A718" s="1" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A719" s="1" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="720" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A720" s="1" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A721" s="1" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A722" s="1" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A723" s="1" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A724" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="725" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A725" s="1" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A726" s="1" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="727" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A727" s="1" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A728" s="1" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="729" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A729" s="1" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A730" s="1" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A731" s="1" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="732" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A732" s="1" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="733" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A733" s="1" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="734" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A734" s="1" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="735" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A735" s="1" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="736" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A736" s="1" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="737" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A737" s="1" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="738" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A738" s="1" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="739" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A739" s="1" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="740" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A740" s="1" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="741" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A741" s="1" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="742" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A742" s="1" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="743" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A743" s="1" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="744" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A744" s="1" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="745" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A745" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="746" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A746" s="1" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="747" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A747" s="1" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="748" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A748" s="1" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="749" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A749" s="1" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="750" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A750" s="1" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="751" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A751" s="1" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="752" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A752" s="1" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="753" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A753" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="754" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A754" s="1" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="755" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A755" s="1" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="756" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A756" s="1" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="757" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A757" s="1" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="758" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A758" s="1" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="759" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A759" s="1" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="760" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A760" s="1" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="761" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A761" s="1" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="762" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A762" s="1" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="763" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A763" s="1" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="764" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A764" s="1" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="765" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A765" s="1" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="766" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A766" s="1" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="767" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A767" s="1" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="768" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A768" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="769" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A769" s="1" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="770" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A770" s="1" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="771" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A771" s="1" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="772" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A772" s="1" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="773" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A773" s="1" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="774" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A774" s="1" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="775" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A775" s="1" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="776" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A776" s="1" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="777" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A777" s="1" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="778" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A778" s="1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="779" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A779" s="1" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="780" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A780" s="1" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="781" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A781" s="1" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="782" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A782" s="1" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="783" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A783" s="1" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="784" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A784" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A785" s="1" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A786" s="1" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A787" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A788" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A789" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="B789" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A790" s="1" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A791" s="1" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A792" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A793" s="1" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A794" s="1" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A795" s="1" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A796" s="1" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A797" s="1" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A798" s="1" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A799" s="1" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A800" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="801" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A801" s="1" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="802" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A802" s="1" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="803" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A803" s="1" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="804" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A804" s="1" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="805" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A805" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="806" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A806" s="1" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="807" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A807" s="1" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="808" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A808" s="1" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="809" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A809" s="1" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="810" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A810" s="1" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="811" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A811" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="812" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A812" s="1" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="813" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A813" s="1" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="814" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A814" s="1" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="815" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A815" s="1" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="816" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A816" s="1" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="817" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A817" s="1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="818" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A818" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="819" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A819" s="1" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="820" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A820" s="1" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="821" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A821" s="1" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="822" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A822" s="1" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="823" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A823" s="1" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="824" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A824" s="1" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="825" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A825" s="1" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="826" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A826" s="1" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="827" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A827" s="1" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="828" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A828" s="1" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="829" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A829" s="1" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="830" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A830" s="1" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="831" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A831" s="1" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="832" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A832" s="1" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="833" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A833" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="834" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A834" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="835" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A835" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="836" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A836" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="837" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A837" s="1" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="838" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A838" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="839" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A839" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="840" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A840" s="1" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="841" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A841" s="1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="842" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A842" s="1" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="843" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A843" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="844" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A844" s="1" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="845" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A845" s="1" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="846" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A846" s="1" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="847" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A847" s="1" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="848" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A848" s="1" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="849" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A849" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="850" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A850" s="1" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="851" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A851" s="1" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="852" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A852" s="1" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="853" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A853" s="1" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="854" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A854" s="1" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="855" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A855" s="1" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="856" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A856" s="1" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="857" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A857" s="1" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="858" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A858" s="1" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="859" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A859" s="1" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="860" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A860" s="1" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="861" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A861" s="1" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="862" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A862" s="1" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="863" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A863" s="1" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="864" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A864" s="1" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="865" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A865" s="1" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="866" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A866" s="1" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="867" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A867" s="1" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="868" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A868" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="869" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A869" s="1" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="870" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A870" s="1" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="871" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A871" s="1" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="872" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A872" s="1" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="873" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A873" s="1" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="874" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A874" s="1" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="875" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A875" s="1" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="876" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A876" s="1" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="877" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A877" s="1" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="878" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A878" s="1" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="879" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A879" s="1" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="880" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A880" s="1" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="881" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A881" s="1" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="882" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A882" s="1" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="883" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A883" s="1" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="884" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A884" s="1" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="885" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A885" s="1" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="886" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A886" s="1" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="887" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A887" s="1" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="888" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A888" s="1" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="889" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A889" s="1" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="890" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A890" s="1" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="891" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A891" s="1" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="892" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A892" s="1" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="893" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A893" s="1" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="894" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A894" s="1" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="895" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A895" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="896" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A896" s="1" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="897" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A897" s="1" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="898" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A898" s="1" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="899" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A899" s="1" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="900" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A900" s="1" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="901" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A901" s="1" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="902" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A902" s="1" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="903" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A903" s="1" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="904" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A904" s="1" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="905" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A905" s="1" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="906" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A906" s="1" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="907" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A907" s="1" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="908" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A908" s="1" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="909" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A909" s="1" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="910" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A910" s="1" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="911" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A911" s="1" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="912" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A912" s="1" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="913" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A913" s="1" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="914" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A914" s="1" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="915" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A915" s="1" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="916" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A916" s="1" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="917" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A917" s="1" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="918" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A918" s="1" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="919" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A919" s="1" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="920" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A920" s="1" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="921" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A921" s="1" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="922" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A922" s="1" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="923" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A923" s="1" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="924" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A924" s="1" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="925" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A925" s="1" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="926" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A926" s="1" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="927" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A927" s="1" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="928" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A928" s="1" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="929" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A929" s="1" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="930" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A930" s="1" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="931" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A931" s="1" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="932" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A932" s="1" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="933" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A933" s="1" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="934" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A934" s="1" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="935" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A935" s="1" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="936" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A936" s="1" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="937" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A937" s="1" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="938" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A938" s="1" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="939" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A939" s="1" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="940" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A940" s="1" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="941" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A941" s="1" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="942" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A942" s="1" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="943" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A943" s="1" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="944" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A944" s="1" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="945" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A945" s="1" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="946" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A946" s="1" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="947" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A947" s="1" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="948" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A948" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="949" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A949" s="1" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="950" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A950" s="1" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="951" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A951" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="952" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A952" s="1" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="953" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A953" s="1" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="954" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A954" s="1" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="955" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A955" s="1" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="956" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A956" s="1" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="957" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A957" s="1" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="958" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A958" s="1" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="959" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A959" s="1" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="960" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A960" s="1" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="961" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A961" s="1" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="962" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A962" s="1" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="963" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A963" s="1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="964" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A964" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="965" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A965" s="1" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="966" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A966" s="1" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="967" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A967" s="1" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="968" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A968" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="969" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A969" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="970" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A970" s="1" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="971" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A971" s="1" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="972" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A972" s="1" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="973" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A973" s="1" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="974" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A974" s="1" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="975" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A975" s="1" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="976" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A976" s="1" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="977" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A977" s="1" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="978" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A978" s="1" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="979" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A979" s="1" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="980" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A980" s="1" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="981" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A981" s="1" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="982" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A982" s="1" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="983" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A983" s="1" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="984" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A984" s="1" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="985" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A985" s="1" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="986" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A986" s="1" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="987" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A987" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="988" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A988" s="1" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="989" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A989" s="1" t="s">
+        <v>991</v>
       </c>
     </row>
   </sheetData>
